--- a/biology/Botanique/Iris_(genre_végétal)/Iris_(genre_végétal).xlsx
+++ b/biology/Botanique/Iris_(genre_végétal)/Iris_(genre_végétal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+          <t>Iris_(genre_végétal)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Iris (nom masculin) est un genre de plantes vivaces à rhizomes ou à bulbes de la famille des Iridacées.
 Le genre Iris contient 210 espèces et d'innombrables variétés horticoles. On trouve souvent dans les jardins des Iris hybrides horticoles appelés à tort Iris germaniques.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+          <t>Iris_(genre_végétal)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot « iris » est un emprunt médiéval au latin iris, iridis, lui-même emprunté au grec Iris, Iridos désignant la messagère des dieux, personnification de l'arc-en-ciel. Le terme a d'ailleurs longtemps été employé pour désigner l'arc-en-ciel. On le trouve associé à la fleur à partir du XIIIe siècle, en raison de la coloration de ses pétales, aux reflets irisés[réf. nécessaire][1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot « iris » est un emprunt médiéval au latin iris, iridis, lui-même emprunté au grec Iris, Iridos désignant la messagère des dieux, personnification de l'arc-en-ciel. Le terme a d'ailleurs longtemps été employé pour désigner l'arc-en-ciel. On le trouve associé à la fleur à partir du XIIIe siècle, en raison de la coloration de ses pétales, aux reflets irisés[réf. nécessaire],
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+          <t>Iris_(genre_végétal)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Iris sauvages (I. pseudacorus en Finlande).
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+          <t>Iris_(genre_végétal)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme de nombreuses plantes à fleurs, les premiers iris sont apparus vers la fin du Crétacé (Campanien) il y a environ 80 millions d'années dans une zone devenue aujourd'hui l'Antarctique.
 On trouve aujourd'hui des Iris dans tout l'hémisphère nord, aussi bien en Europe qu'en Asie, en Afrique du Nord et en Amérique du Nord.
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+          <t>Iris_(genre_végétal)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,17 +644,18 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insectes
-La Cétoine grise (Oxythyrea funesta) peut s'attaquer aux fleurs d'iris.
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Cétoine grise (Oxythyrea funesta) peut s'attaquer aux fleurs d'iris.
 La pupe d'Orthochaeta dissimilis s'attaque aux pollens.
 Les chenilles des papillons de nuit (hétérocères) suivants se nourrissent d'iris :
 la Cténuche de Virginie, Ctenucha virginica (Erebidae),
 la Plusie de la fétuque, Plusia festucae (Noctuidae).
-le Perceur de l'iris, Macronoctua onusta (Noctuidae).
-Autres pathogènes
-En climat humide, l'hétérosporiose (Cladosporium iridis) peut créer des taches brunes sur le feuillage sans gêner la floraison ni s'attaquer aux rhizomes. Il convient d'appliquer un fongicide (mélangé à un corps gras pour adhérer aux feuilles cireuses) en début de saison lorsque les feuilles atteignent 10 cm (chaque semaine pendant 4 à 6 semaines) pour limiter la propagation des spores qui pourrait tuer la plante en quelques années.
-La pourriture molle, provoquée par la bactérie Erwinia carotovora, peut, elle, attaquer les rhizomes. Dans ce cas, ils mollissent et dégagent une odeur nauséabonde. Cela survient souvent sur sol trop peu drainant et/ou trop riche en matière organique mal décomposée. Il faut supprimer entièrement la partie atteinte en coupant en partie saine avec un outil bien tranchant et propre, puis laisser sécher la surface de coupe et vaporiser avec un antiseptique de type eau de javel ou permanganate dilué.
-</t>
+le Perceur de l'iris, Macronoctua onusta (Noctuidae).</t>
         </is>
       </c>
     </row>
@@ -646,7 +665,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+          <t>Iris_(genre_végétal)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,14 +680,89 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Ennemis</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres pathogènes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En climat humide, l'hétérosporiose (Cladosporium iridis) peut créer des taches brunes sur le feuillage sans gêner la floraison ni s'attaquer aux rhizomes. Il convient d'appliquer un fongicide (mélangé à un corps gras pour adhérer aux feuilles cireuses) en début de saison lorsque les feuilles atteignent 10 cm (chaque semaine pendant 4 à 6 semaines) pour limiter la propagation des spores qui pourrait tuer la plante en quelques années.
+La pourriture molle, provoquée par la bactérie Erwinia carotovora, peut, elle, attaquer les rhizomes. Dans ce cas, ils mollissent et dégagent une odeur nauséabonde. Cela survient souvent sur sol trop peu drainant et/ou trop riche en matière organique mal décomposée. Il faut supprimer entièrement la partie atteinte en coupant en partie saine avec un outil bien tranchant et propre, puis laisser sécher la surface de coupe et vaporiser avec un antiseptique de type eau de javel ou permanganate dilué.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Iris a été décrit en 1753 par le naturaliste suédois Carl von Linné (1707-1778). Il est assigné à la famille des Iridaceae.
-Synonymes
-Selon BioLib                    (14 novembre 2020)[3], les synonymes du genre Iris L. sont les suivants : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (14 novembre 2020), les synonymes du genre Iris L. sont les suivants : 
 Alatavia Rodion.
 Belamcanda Adans.
 Beverna Adans.
@@ -679,8 +773,43 @@
 Cryptobasis Nevski
 Eremiris (Spach) Rodion.
 Evansia Salisb.
-Classification
-Il y a eu différentes classifications au cours de l'histoire. La plus récente est celle de Brian Mathew en 1989, ci-dessous détaillée : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a eu différentes classifications au cours de l'histoire. La plus récente est celle de Brian Mathew en 1989, ci-dessous détaillée : 
 Selon B. Mathew le genre Iris est divisé en 6 sous-genres :
 Iris (Iris barbus à rhizomes) aussi appelé 'pogon" ("barbe" en grec) ou "Eupogon" (vraie barbe)
 Limniris (Iris sans barbe à rhizomes)
@@ -694,129 +823,491 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Iris_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Utilisation par les humains</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre leur attrait ornemental, certains iris ont des propriétés techniques, alimentaires ou chimiques intéressantes.
-Horticulture
-L’obtention par hybridation de très nombreux cultivars a conduit à l’élaboration d’une classification horticole très différente de la botanique pour les iris de jardin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Utilisation par les humains</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Horticulture</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’obtention par hybridation de très nombreux cultivars a conduit à l’élaboration d’une classification horticole très différente de la botanique pour les iris de jardin.
 En période de floraison des iris, les horticulteurs organisent des événements destinés aux collectionneurs ou simples amateurs. Par exemple, une exposition d'iris en Suisse dans les jardins du château de Vullierens, ou bien encore un Festival de l'Iris qui a lieu chaque année en France au château d'Auvers-sur-Oise.
-Génie végétal
-Les rhizomes des iris contribuent à stabiliser les berges et vasières des cours d'eau.
-Feuilles
-Les amérindiens du nord utilisaient les fibres des feuilles d'iris pour produire de fines et résistantes cordelettes[4].
-Usages alimentaires
-Selon l'ethnobotaniste François Couplan (2009), les rhizomes (ou « cormes ») de la plupart des espèces d'Iris sont immangeables car très âcres voire toxiques. Mais ceux de plusieurs espèces - en séchant - dégagent une odeur agréable, proche du parfum de la violette ; c'est le cas pour I. germanica et I. pallida en Europe, plantes utilisées depuis l'antiquité. Leurs rhizomes étaient mastiqués, ou réduits en poudre pour aromatiser certains plats ou desserts.
-Ils servent aussi à aromatiser certains alcools (Gin ou Chianti par exemple)[4]. Quand le vin prenait un goût de moisi en fermentant dans son tonneau, on y jetait un rhizome d'Iris pour cacher ce goût et améliorer le vin[4].
-Au Japon et dans d'autres régions d'Asie I. sibirica (naturellement aussi présent en Europe centrale et de l'Est), et I. tectorum (parfois présent aujourd'hui dans les jardins en Europe comme plante décorative) sont cultivés pour produire de la fécule de racine, bien que certains cultivars ou souches aient un goût très âcre[4].
-Le rhizome d’Iris filifolia était mangé en Afrique du nord, et celui d’Iris germanica en Anatolie (outre une essence aromatique, il contient des composants amylacés, pour 50 % de son poids environ, du tanin, un glucoside (irisine) et des fibres). Il était réputé expectorant et diurétique, mais ceux d'autres espèces comme Iris pseudacorus et Iris foetidissima (sud et l'ouest de l'Europe) ou Iris sibirica sont toxiques (irritants, vésicant émétiques et purgatifs)[4].
-Graines : celles d’Iris pseudacorus, longuement torréfiées, ont servi de succédané au café, et en Alaska celles d’Iris setosa (en) étaient consommées torréfiées[4].
-Parfum
-L'essence d'iris, obtenue après une distillation extrêmement délicate, est un fixateur de parfum réputé. L'odeur évoque celle de la violette, propriété due à la présence d'irone[5].
-Seules certaines espèces sont très recherchées en parfumerie pour leur rhizome, dont on extrait l'essence d'iris et son principal composant, l'irone. La principale espèce est Iris germanica, originaire du pourtour nord de la Méditerranée, avec surtout sa forme blanche plus connue sous le nom d'« iris de Florence » (anciennement Iris florentina) qui correspondrait à l'iris de l'Antiquité grecque. Dans une moindre mesure on utilise aussi Iris pallida, cultivé en Italie et au Maroc, mais qui a été cultivé aussi à Grasse et ses environs, de même que l'iris de Florence[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Utilisation par les humains</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Génie végétal</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rhizomes des iris contribuent à stabiliser les berges et vasières des cours d'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Utilisation par les humains</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les amérindiens du nord utilisaient les fibres des feuilles d'iris pour produire de fines et résistantes cordelettes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Utilisation par les humains</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Usages alimentaires</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan (2009), les rhizomes (ou « cormes ») de la plupart des espèces d'Iris sont immangeables car très âcres voire toxiques. Mais ceux de plusieurs espèces - en séchant - dégagent une odeur agréable, proche du parfum de la violette ; c'est le cas pour I. germanica et I. pallida en Europe, plantes utilisées depuis l'antiquité. Leurs rhizomes étaient mastiqués, ou réduits en poudre pour aromatiser certains plats ou desserts.
+Ils servent aussi à aromatiser certains alcools (Gin ou Chianti par exemple). Quand le vin prenait un goût de moisi en fermentant dans son tonneau, on y jetait un rhizome d'Iris pour cacher ce goût et améliorer le vin.
+Au Japon et dans d'autres régions d'Asie I. sibirica (naturellement aussi présent en Europe centrale et de l'Est), et I. tectorum (parfois présent aujourd'hui dans les jardins en Europe comme plante décorative) sont cultivés pour produire de la fécule de racine, bien que certains cultivars ou souches aient un goût très âcre.
+Le rhizome d’Iris filifolia était mangé en Afrique du nord, et celui d’Iris germanica en Anatolie (outre une essence aromatique, il contient des composants amylacés, pour 50 % de son poids environ, du tanin, un glucoside (irisine) et des fibres). Il était réputé expectorant et diurétique, mais ceux d'autres espèces comme Iris pseudacorus et Iris foetidissima (sud et l'ouest de l'Europe) ou Iris sibirica sont toxiques (irritants, vésicant émétiques et purgatifs).
+Graines : celles d’Iris pseudacorus, longuement torréfiées, ont servi de succédané au café, et en Alaska celles d’Iris setosa (en) étaient consommées torréfiées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Utilisation par les humains</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Parfum</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'essence d'iris, obtenue après une distillation extrêmement délicate, est un fixateur de parfum réputé. L'odeur évoque celle de la violette, propriété due à la présence d'irone.
+Seules certaines espèces sont très recherchées en parfumerie pour leur rhizome, dont on extrait l'essence d'iris et son principal composant, l'irone. La principale espèce est Iris germanica, originaire du pourtour nord de la Méditerranée, avec surtout sa forme blanche plus connue sous le nom d'« iris de Florence » (anciennement Iris florentina) qui correspondrait à l'iris de l'Antiquité grecque. Dans une moindre mesure on utilise aussi Iris pallida, cultivé en Italie et au Maroc, mais qui a été cultivé aussi à Grasse et ses environs, de même que l'iris de Florence.
 Il semble que la mode de l'iris comme parfum ait été lancée par Catherine de Médicis[réf. souhaitée]. Après avoir été un moment considéré comme démodé, l'iris entre toujours aujourd'hui dans la composition de nombreux parfums, associé aux notes florales ou comme note de fond.
-Cosmétique
-La poudre de racine d'iris est obtenue à partir des rhizomes d’Iris germanica longuement fermentés, mis à sécher pendant au moins trois ans, pilés, puis tamisés, donnant une fine poudre blanche et parfumée, appelée communément « poudre de riz ». Elle était utilisée notamment au XVIIe siècle pour traiter les cheveux, mais on lui prêtait aussi des vertus pour blanchir les dents et apaiser les gencives douloureuses[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Iris_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Utilisation par les humains</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cosmétique</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poudre de racine d'iris est obtenue à partir des rhizomes d’Iris germanica longuement fermentés, mis à sécher pendant au moins trois ans, pilés, puis tamisés, donnant une fine poudre blanche et parfumée, appelée communément « poudre de riz ». Elle était utilisée notamment au XVIIe siècle pour traiter les cheveux, mais on lui prêtait aussi des vertus pour blanchir les dents et apaiser les gencives douloureuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fleur associée à Horus d'Égypte
-Pour les Égyptiens, l’iris est associé à Horus, le dieu Faucon, l’une des plus anciennes divinités égyptiennes[6]. Horus symbolise le soleil du matin et celui du soir. Les couleurs vives et variées de la fleur en firent très vite le symbole d’un arc-en-ciel réunissant le ciel et la terre.
-Fleur des rois de France
-Le lis n'est pas la fleur emblématique de la royauté française. Cet honneur serait associé à l'iris sous le nom héraldique de fleur de lys[7].
-La légende dit que l'iris est d'abord devenu le talisman du roi Clovis. Alors qu'il était pourchassé par les Wisigoths près de Châtellerault en 507, il aurait traversé une rivière à gué, la Vienne, bordée de touffes d'iris jaune. Il en cueillit une fleur et partit vaillamment à la bataille. Pour célébrer sa victoire, il aurait troqué les crapauds de ses armoiries pour la symbolique de l'iris des marais, devenu son emblème, le symbole de la monarchie et de l'unité du royaume[7]. Les rois de France en ornèrent leur blason dès 1150. À partir du roi Louis VII le Jeune, on l’appela fleur de Louis, qui, par déformation devint fleur de Louy puis fleur de lys[6].
-Il a aussi été affirmé que la fleur de lys serait un ancien symbole des Francs saliens qui étaient originaires de Flandre où l'iris des marais (Iris pseudacorus L.) pousse en abondance sur les rives de la Lys, le cours d'eau le plus important de Flandre après l'Escaut. Le seigneur d'Armentières, une ville où coule cette rivière, en fit le motif de son blason. Lors de l'annexion de son fief par le roi des Francs, celui-ci décida à son tour de l'ajouter à son propre blason. Ainsi serait née la « fleur de Lys », qui n'aurait pas été un lys mais un iris[8]. Par ailleurs, la fleur de lys serait la traduction littérale du vieux-francique lieschbloem, qui signifie fleur d'iris. Cette langue était parlée par les Francs saliens et les rois de France sont issus des rois Francs, cette dénomination peut avoir influencé le latin parlé en Gaule[9],[10].
-Emblème de Bruxelles-Capitale, du Québec et de Florence
-Aujourd'hui, l'iris des marais (Iris pseudacorus, également appelé Iris faux-acore), dont les fleurs sont d'une belle couleur jaune, est l'emblème de la Région de Bruxelles-Capitale[11],[12], tandis que l'iris versicolore, à fleurs de couleur bleu vif à violet, (I. versicolor) est celui du Québec depuis 1999.
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fleur associée à Horus d'Égypte</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les Égyptiens, l’iris est associé à Horus, le dieu Faucon, l’une des plus anciennes divinités égyptiennes. Horus symbolise le soleil du matin et celui du soir. Les couleurs vives et variées de la fleur en firent très vite le symbole d’un arc-en-ciel réunissant le ciel et la terre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fleur des rois de France</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lis n'est pas la fleur emblématique de la royauté française. Cet honneur serait associé à l'iris sous le nom héraldique de fleur de lys.
+La légende dit que l'iris est d'abord devenu le talisman du roi Clovis. Alors qu'il était pourchassé par les Wisigoths près de Châtellerault en 507, il aurait traversé une rivière à gué, la Vienne, bordée de touffes d'iris jaune. Il en cueillit une fleur et partit vaillamment à la bataille. Pour célébrer sa victoire, il aurait troqué les crapauds de ses armoiries pour la symbolique de l'iris des marais, devenu son emblème, le symbole de la monarchie et de l'unité du royaume. Les rois de France en ornèrent leur blason dès 1150. À partir du roi Louis VII le Jeune, on l’appela fleur de Louis, qui, par déformation devint fleur de Louy puis fleur de lys.
+Il a aussi été affirmé que la fleur de lys serait un ancien symbole des Francs saliens qui étaient originaires de Flandre où l'iris des marais (Iris pseudacorus L.) pousse en abondance sur les rives de la Lys, le cours d'eau le plus important de Flandre après l'Escaut. Le seigneur d'Armentières, une ville où coule cette rivière, en fit le motif de son blason. Lors de l'annexion de son fief par le roi des Francs, celui-ci décida à son tour de l'ajouter à son propre blason. Ainsi serait née la « fleur de Lys », qui n'aurait pas été un lys mais un iris. Par ailleurs, la fleur de lys serait la traduction littérale du vieux-francique lieschbloem, qui signifie fleur d'iris. Cette langue était parlée par les Francs saliens et les rois de France sont issus des rois Francs, cette dénomination peut avoir influencé le latin parlé en Gaule,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Emblème de Bruxelles-Capitale, du Québec et de Florence</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aujourd'hui, l'iris des marais (Iris pseudacorus, également appelé Iris faux-acore), dont les fleurs sont d'une belle couleur jaune, est l'emblème de la Région de Bruxelles-Capitale tandis que l'iris versicolore, à fleurs de couleur bleu vif à violet, (I. versicolor) est celui du Québec depuis 1999.
 Le lys de Florence est également un iris de jardin.
 L'iris d'Angleterre (Iris latifolia) est en fait à l'origine une belle espèce endémique des Pyrénées.
-Langage des fleurs
-Dans le langage des fleurs, l'iris symbolise l'inconstance, le cœur tendre ou l'amour confiant[13].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'iris symbolise l'inconstance, le cœur tendre ou l'amour confiant.
 L'iris blanc symbolise l'ardeur, le bleu la confiance.[réf. nécessaire]
-Mythologie
-Dans la mythologie grecque, Iris était fille de Thaumos, fils de la Terre. Elle devint la favorite de Héra, à laquelle elle n'apportait jamais que de bonnes nouvelles. En récompense de ses services, elle fut changée en arc-en-ciel, symbole du retour du beau temps.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Iris_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mythologie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la mythologie grecque, Iris était fille de Thaumos, fils de la Terre. Elle devint la favorite de Héra, à laquelle elle n'apportait jamais que de bonnes nouvelles. En récompense de ses services, elle fut changée en arc-en-ciel, symbole du retour du beau temps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Classification détaillée</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Sous-genre Iris
-Ce sont les iris « barbus » à rhizomes.
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sous-genre Iris</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les iris « barbus » à rhizomes.
 	Quelques iris barbus à rhizomes du sous-genre Iris
 			Iris aphylla, à barbe blanche
 			Iris germanica
@@ -824,8 +1315,47 @@
 			Iris arenaria
 			Iris tigridia
 			Iris bismarckiana
-Section Iris
-Ce sont des iris barbus :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sous-genre Iris</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Section Iris</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des iris barbus :
 Iris adriatica Trinajstic ex Mitic
 Iris albertii Reg.
 Iris albicans
@@ -870,8 +1400,47 @@
 Iris taochia Woronow ex Grossh.
 Iris timofejewii Woronow
 Iris variegata L. Iris Hongrois
-Section Oncocyclus
-Ce sont les iris « à cercle gonflé », en référence à l'arille présent sur les graines :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sous-genre Iris</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Section Oncocyclus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les iris « à cercle gonflé », en référence à l'arille présent sur les graines :
 Iris acutiloba C.A.Mey. (including I. ewbankiana)
 Iris antilibanotica  Dinsm.
 Iris assadiana Chaudhary, Kirkw. &amp; C.Weymolauth
@@ -911,12 +1480,89 @@
 Iris swensoniana  Chaudhary, G.Kirkw. &amp; C.Weymouth
 Iris westii Dinsm.
 Iris yebrudii Dinsm. ex Chaudhary
-Section Hexapogon
-Ce sont les iris à 6 barbes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sous-genre Iris</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Section Hexapogon</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Ce sont les iris à 6 barbes :
 Iris falcifolia Bunge
-Iris longiscapa Ledeb.
-Section Psammiris
-Ce sont les iris des sables :
+Iris longiscapa Ledeb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sous-genre Iris</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Section Psammiris</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les iris des sables :
 Iris arenaria Waldst. &amp; Kit.
 Iris bloudowii Ledeb.
 Iris curvifolia Y.T.Zhao
@@ -925,7 +1571,47 @@
 Iris mandschurica Maxim.
 Iris potaninii Maxim.
 Iris vorobievii N.S.Pavlova
-Section Pseudoregelia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sous-genre Iris</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Section Pseudoregelia</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Iris cuniculiformis Noltie &amp; K.Y.Guan
 Iris dolichosiphon Noltie
 Iris goniocarpa Bak.
@@ -936,7 +1622,47 @@
 Iris narcissiflora  Diels.
 Iris sikkimensis Dykes
 Iris tigridia Bunge ex Ledeb.
-Section Regelia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sous-genre Iris</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Section Regelia</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Iris afghanica Wendelbo
 Iris darwasicaRegel
 Iris heweri Grey-Wilson &amp; Mathew
@@ -945,8 +1671,43 @@
 Iris kuschkensis Grey-Wilson &amp; Mathew
 Iris lineata Foster ex Regel
 Iris stolonifera Maxim.
-Sous-genre Limniris
-Ce sont les iris à rhizomes sans barbe, ou apogon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sous-genre Limniris</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les iris à rhizomes sans barbe, ou apogon.
 	Quelques iris à rhizomes sans barbe du sous-genre Limiris
 			Iris ensata
 			Iris pseudacorus
@@ -956,7 +1717,47 @@
 			Iris orientalis
 			Iris milesii
 			Iris wattii
-Section Limniris
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sous-genre Limniris</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Section Limniris</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Série Californicae
 Iris bracteata
 Iris chrysophylla
@@ -1055,8 +1856,47 @@
 Iris unguicularis Poir.
 Series Vernae
 Iris verna L. – Iris verna
-Section Lophiris
-iris à crête, aussi appelés Section Evansias.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sous-genre Limniris</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Section Lophiris</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iris à crête, aussi appelés Section Evansias.
 Iris confusa   Sealy
 Iris cristata   Aiton
 Iris formosana Ohwi
@@ -1070,15 +1910,88 @@
 Iris tectorum Maxim.
 Iris tenuis S.Wats.
 Iris wattii Baker ex Hook.f.
-Section Unguiculares
-Iris lazica Albov
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sous-genre Limniris</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Section Unguiculares</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Iris lazica Albov
 Iris unguicularis Poiret
 hybrides non catégorisés
 Iris thompsonii R.C.Foster – (Thompson's Iris) (formerly in I. innominata)
 Iris × robusta E.Anderson. – (Robust Iris) (I. versicolor × I. Virginica)
-Iris × sancti-cyriJ.Rousseau – (Saint-Cyr iris) (I. hookeri × I. versicolor)
-Sous-genre Xiphium
-Iris à bulbes mous. Anciennement genre Xiphion. Iris espagnol
+Iris × sancti-cyriJ.Rousseau – (Saint-Cyr iris) (I. hookeri × I. versicolor)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sous-genre Xiphium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iris à bulbes mous. Anciennement genre Xiphion. Iris espagnol
 	Quelques iris à bulbes mous du sous-genre Xiphium
 			Iris latifolia
 			Iris lusitanica
@@ -1091,14 +2004,83 @@
 Iris serotina Willk. in Willk. &amp; Lange
 Iris tingitana Boiss. &amp; Reut. – (Iris du Maroc)
 Iris xiphium L. – Iris Espagnol
-Sous-genre Nepalensis
-Iris bulbeux. Anciennement genre Junopsis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sous-genre Nepalensis</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Iris bulbeux. Anciennement genre Junopsis.
 Iris collettii Hook.
 Iris decora Wall.
 Iris staintonii H Hara
-Iris barbatula Noltie &amp; Guan
-Sous-genre Scorpiris
-Iris à bulbes mous surnommés "junos". Anciennement genre Juno.
+Iris barbatula Noltie &amp; Guan</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sous-genre Scorpiris</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iris à bulbes mous surnommés "junos". Anciennement genre Juno.
 	Quelques iris à bulbes mous du sous-genre Scorpiris
 			Iris palaestina
 			Iris regis-uzziae
@@ -1129,8 +2111,43 @@
 Iris willmottiana Foster
 Iris zaprjagajewii Abramov
 Iris zenaidae Botschant
-Sous-genre Hermodactyloides
-Iris à bulbe réticulé. Anciennement genre Iridodictyum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sous-genre Hermodactyloides</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iris à bulbe réticulé. Anciennement genre Iridodictyum.
 	Quelques iris à bulbe réticulé du sous-genre Hermodactyloides
 			Iris reticulata
 			Iris reticulata
@@ -1146,8 +2163,43 @@
 Iris vartanii Foster
 Iris winkleri Regel
 Iris winogradowii Fomin
-Autres
-Iris dichotoma Pall. (Vesper Iris) (anciennement Pardanthopsis)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Iris_(genre_végétal)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_(genre_v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Classification détaillée</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Iris dichotoma Pall. (Vesper Iris) (anciennement Pardanthopsis)
 Iris domestica</t>
         </is>
       </c>
